--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-08_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-08_beg.xlsx
@@ -992,7 +992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  "Little Miss," would you mind giving me the room?
+    <t xml:space="preserve">[name="Ch'en"]  'Little Miss,' would you mind giving me the room?
 </t>
   </si>
   <si>
@@ -1148,7 +1148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]  They call him the "Rat King."
+    <t xml:space="preserve">[name="Ch'en"]  They call him the 'Rat King.'
 </t>
   </si>
   <si>
@@ -1364,7 +1364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Swire"]  They'll be Lungmen's downtown Districts 22 to 29. No longer "slums."
+    <t xml:space="preserve">[name="Swire"]  They'll be Lungmen's downtown Districts 22 to 29. No longer 'slums.'
 </t>
   </si>
   <si>
